--- a/Documentacion/BD.xlsx
+++ b/Documentacion/BD.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan Rivera\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15345" windowHeight="4575" tabRatio="688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BD TIENDA" sheetId="2" r:id="rId1"/>
     <sheet name="DB SUCAMEC" sheetId="3" r:id="rId2"/>
     <sheet name="BD ANTECEDENTES" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="205">
   <si>
     <t>DNI</t>
   </si>
@@ -546,13 +542,103 @@
   </si>
   <si>
     <t>CIUDADANO</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>cara</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>Pistola COLT Government-1911 A1 (2772884) 22 LR pavonada 12 tiros cañón 5", 1 cacerina, maletín.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistola COLT Government-1911 A1 (2772884) 22 LR pa </t>
+  </si>
+  <si>
+    <t>503-COLT1911</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>503-COLT1912</t>
+  </si>
+  <si>
+    <t>503-COLT1913</t>
+  </si>
+  <si>
+    <t>503-COLT1914</t>
+  </si>
+  <si>
+    <t>503-COLT1915</t>
+  </si>
+  <si>
+    <t>Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-madera 09 tiros cañón de 2.75, doble acción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-m </t>
+  </si>
+  <si>
+    <t>503-TAU-PT25</t>
+  </si>
+  <si>
+    <t>TAURUS</t>
+  </si>
+  <si>
+    <t>COLT </t>
+  </si>
+  <si>
+    <t>Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.</t>
+  </si>
+  <si>
+    <t>503-R-KMK512</t>
+  </si>
+  <si>
+    <t>RUGER </t>
+  </si>
+  <si>
+    <t>Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.</t>
+  </si>
+  <si>
+    <t>SIG SAUER</t>
+  </si>
+  <si>
+    <t>503-P238-EQ</t>
+  </si>
+  <si>
+    <t>insert into arma values('</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +705,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF636363"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -689,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -724,6 +823,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,7 +925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,20 +1136,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -1057,14 +1158,14 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="23.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1197,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1229,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1244,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1259,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1291,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1306,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1321,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1336,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1351,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="23.45">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="4" t="s">
         <v>168</v>
       </c>
@@ -1280,7 +1381,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1396,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1411,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1426,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.45">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -1410,7 +1511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1427,7 +1528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="23.45">
       <c r="A32" s="6" t="s">
         <v>135</v>
       </c>
@@ -1442,7 +1543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1558,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -1474,7 +1575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="4" t="s">
         <v>168</v>
       </c>
@@ -1491,7 +1592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.45">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -1506,7 +1607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.45">
       <c r="A38" s="4" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.45">
       <c r="A39" s="4" t="s">
         <v>59</v>
       </c>
@@ -1555,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.45">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1570,7 +1671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="4" t="s">
         <v>66</v>
       </c>
@@ -1585,7 +1686,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.45">
       <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
@@ -1615,21 +1716,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1739,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="23.45">
       <c r="A3" s="3" t="s">
         <v>174</v>
       </c>
@@ -1655,7 +1756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -1670,7 +1771,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1803,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1818,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1833,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1749,7 +1850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1865,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1880,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1895,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +1910,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1824,14 +1925,14 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="17" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="23.45">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -1848,7 +1949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
@@ -1863,7 +1964,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
@@ -1880,7 +1981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1897,7 +1998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
@@ -1914,7 +2015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1931,7 +2032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="4" t="s">
         <v>168</v>
       </c>
@@ -1946,7 +2047,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1963,7 +2064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1980,7 +2081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -1997,7 +2098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
@@ -2014,7 +2115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45">
       <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2031,7 +2132,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -2048,7 +2149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.45">
       <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
@@ -2065,7 +2166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -2082,7 +2183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="23.45">
       <c r="A34" s="6" t="s">
         <v>39</v>
       </c>
@@ -2099,7 +2200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
@@ -2114,7 +2215,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="13.9" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>56</v>
       </c>
@@ -2131,7 +2232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -2148,7 +2249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.45">
       <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
@@ -2165,7 +2266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="4" t="s">
         <v>168</v>
       </c>
@@ -2180,7 +2281,7 @@
       </c>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.45">
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
@@ -2197,7 +2298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -2214,7 +2315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.45">
       <c r="A42" s="19" t="s">
         <v>71</v>
       </c>
@@ -2243,20 +2344,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1" s="21" t="s">
         <v>87</v>
       </c>
@@ -2265,14 +2366,14 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="23.45">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
@@ -2289,7 +2390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -2304,7 +2405,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2420,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2435,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -2349,7 +2450,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2465,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2480,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2495,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45">
       <c r="A11" s="4" t="s">
         <v>88</v>
       </c>
@@ -2409,7 +2510,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2424,7 +2525,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45">
       <c r="A13" s="4" t="s">
         <v>90</v>
       </c>
@@ -2439,7 +2540,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
@@ -2454,7 +2555,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
@@ -2469,7 +2570,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
@@ -2484,7 +2585,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -2499,7 +2600,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
@@ -2514,7 +2615,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
@@ -2529,7 +2630,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="23.45">
       <c r="A22" s="3" t="s">
         <v>160</v>
       </c>
@@ -2546,7 +2647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2561,7 +2662,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2677,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -2591,7 +2692,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2707,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2722,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -2636,7 +2737,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2752,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -2666,7 +2767,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -2681,7 +2782,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -2696,7 +2797,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -2711,7 +2812,7 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -2726,7 +2827,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
@@ -2741,7 +2842,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2857,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
@@ -2771,7 +2872,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
@@ -2786,7 +2887,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="23.25">
       <c r="A42" s="3" t="s">
         <v>173</v>
       </c>
@@ -2803,7 +2904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2919,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2934,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2848,7 +2949,7 @@
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2964,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +2979,7 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
@@ -2893,7 +2994,7 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +3009,7 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>88</v>
       </c>
@@ -2923,7 +3024,7 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -2938,7 +3039,7 @@
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>90</v>
       </c>
@@ -2953,7 +3054,7 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>91</v>
       </c>
@@ -2968,7 +3069,7 @@
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -2983,7 +3084,7 @@
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -2998,7 +3099,7 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +3114,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>95</v>
       </c>
@@ -3028,7 +3129,7 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3050,4 +3151,1124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K35"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>27728841</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3">
+        <v>2100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" t="str">
+        <f>$K$2&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;",'"&amp;F3&amp;"',"&amp;G3&amp;","&amp;H3&amp;",'"&amp;I3&amp;"',"&amp;J3&amp;");"</f>
+        <v>insert into arma values('27728841','Pistola COLT Government-1911 A1 (2772884) 22 LR pa ','Pistola COLT Government-1911 A1 (2772884) 22 LR pavonada 12 tiros cañón 5", 1 cacerina, maletín.','COLT ',2100,'503-COLT1911',1,4,'503-COLT1911',now());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>27728842</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4">
+        <v>2100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K31" si="0">$K$2&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"',"&amp;E4&amp;",'"&amp;F4&amp;"',"&amp;G4&amp;","&amp;H4&amp;",'"&amp;I4&amp;"',"&amp;J4&amp;");"</f>
+        <v>insert into arma values('27728842','Pistola COLT Government-1911 A1 (2772884) 22 LR pa ','Pistola COLT Government-1911 A1 (2772884) 22 LR pavonada 12 tiros cañón 5", 1 cacerina, maletín.','COLT ',2100,'503-COLT1911',1,4,'503-COLT1912',now());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>27728843</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5">
+        <v>2100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('27728843','Pistola COLT Government-1911 A1 (2772884) 22 LR pa ','Pistola COLT Government-1911 A1 (2772884) 22 LR pavonada 12 tiros cañón 5", 1 cacerina, maletín.','COLT ',2100,'503-COLT1911',1,4,'503-COLT1913',now());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>27728844</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6">
+        <v>2100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('27728844','Pistola COLT Government-1911 A1 (2772884) 22 LR pa ','Pistola COLT Government-1911 A1 (2772884) 22 LR pavonada 12 tiros cañón 5", 1 cacerina, maletín.','COLT ',2100,'503-COLT1911',1,4,'503-COLT1914',now());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>27728845</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7">
+        <v>2100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('27728845','Pistola COLT Government-1911 A1 (2772884) 22 LR pa ','Pistola COLT Government-1911 A1 (2772884) 22 LR pavonada 12 tiros cañón 5", 1 cacerina, maletín.','COLT ',2100,'503-COLT1911',1,4,'503-COLT1915',now());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>12500311</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8">
+        <v>1235</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('12500311','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-m ','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-madera 09 tiros cañón de 2.75, doble acción.','TAURUS',1235,'503-TAU-PT25',1,4,'503-TAU-PT25',now());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>12500312</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9">
+        <v>1235</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('12500312','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-m ','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-madera 09 tiros cañón de 2.75, doble acción.','TAURUS',1235,'503-TAU-PT25',1,4,'503-TAU-PT25',now());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>12500313</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <v>1235</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('12500313','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-m ','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-madera 09 tiros cañón de 2.75, doble acción.','TAURUS',1235,'503-TAU-PT25',1,4,'503-TAU-PT25',now());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>12500314</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11">
+        <v>1235</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('12500314','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-m ','Pistola TAURUS PT-25 (1-250031) 25 Auto pavonado-madera 09 tiros cañón de 2.75, doble acción.','TAURUS',1235,'503-TAU-PT25',1,4,'503-TAU-PT25',now());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10103220</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>2235</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103220','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>10103221</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>2235</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103221','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>10103222</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>2235</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103222','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>10103223</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>2235</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103223','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>10103224</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>2235</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103224','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>10103225</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>2235</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103225','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>10103226</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>2235</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103226','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>10103227</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>2235</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103227','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>10103228</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>2235</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103228','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>10103229</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>2235</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('10103229','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','Pistola RUGER KMK-512, Target Mk III, 10103 22 LR acero inoxidable 10 tiros cañón de 5.5", 02 cacerinas y maletín.','RUGER ',2235,'503-R-KMK512',1,4,'503-R-KMK512',now());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>23813800</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813800','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>23813801</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23">
+        <v>3300</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813801','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23813802</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813802','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>23813803</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25">
+        <v>3300</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813803','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>23813804</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813804','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>23813805</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813805','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>23813806</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28">
+        <v>3300</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813806','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>23813807</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29">
+        <v>3300</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813807','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>23813808</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30">
+        <v>3300</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813808','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>23813809</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31">
+        <v>3300</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into arma values('23813809','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','Pistola SIG SAUER P238 (Equinox) (238-380-EQ) 380 AUTO inoxidable-dos tonos 06 tiros cañón de 2.7", 01 cacerina.','SIG SAUER',3300,'503-P238-EQ',1,4,'503-P238-EQ',now());</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="F35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>